--- a/sample/test/dynamic_location/dynamic_location_data.xlsx
+++ b/sample/test/dynamic_location/dynamic_location_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/dynamic_location/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doe/Documents/TheGang/exco/sample/test/dynamic_location/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FECA8B3-D06A-B64E-82C0-4532A3C07726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C27F2-8A6B-6543-BE6A-6DA292C31D5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>marker</t>
+  </si>
+  <si>
+    <t>below_marker</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
-  <dimension ref="G4:H4"/>
+  <dimension ref="G4:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -395,6 +398,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
